--- a/lowe/edd/data/LASSEHWS.xlsx
+++ b/lowe/edd/data/LASSEHWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1337,14 +1337,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH47"/>
+  <dimension ref="A1:JI47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1354,12 +1354,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1369,14 +1369,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1384,12 +1384,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2204,11 +2204,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3009,10 +3012,13 @@
         <v>9680</v>
       </c>
       <c r="JH9" s="11">
-        <v>9740</v>
+        <v>9730</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>9810</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3815,8 +3821,11 @@
       <c r="JH10" s="11">
         <v>9190</v>
       </c>
+      <c r="JI10" s="11">
+        <v>9350</v>
+      </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4617,10 +4626,13 @@
         <v>550</v>
       </c>
       <c r="JH11" s="11">
-        <v>550</v>
+        <v>540</v>
+      </c>
+      <c r="JI11" s="11">
+        <v>450</v>
       </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5423,8 +5435,11 @@
       <c r="JH12" s="12">
         <v>5.6000000000000001E-2</v>
       </c>
+      <c r="JI12" s="12">
+        <v>4.5999999999999999E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6227,8 +6242,11 @@
       <c r="JH13" s="11">
         <v>9990</v>
       </c>
+      <c r="JI13" s="11">
+        <v>10110</v>
+      </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7031,8 +7049,11 @@
       <c r="JH14" s="11">
         <v>480</v>
       </c>
+      <c r="JI14" s="11">
+        <v>550</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7835,8 +7856,11 @@
       <c r="JH15" s="11">
         <v>9510</v>
       </c>
+      <c r="JI15" s="11">
+        <v>9560</v>
+      </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8639,8 +8663,11 @@
       <c r="JH16" s="11">
         <v>3570</v>
       </c>
+      <c r="JI16" s="11">
+        <v>3540</v>
+      </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9443,8 +9470,11 @@
       <c r="JH17" s="11">
         <v>350</v>
       </c>
+      <c r="JI17" s="11">
+        <v>350</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10247,8 +10277,11 @@
       <c r="JH18" s="11">
         <v>350</v>
       </c>
+      <c r="JI18" s="11">
+        <v>350</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11051,8 +11084,11 @@
       <c r="JH19" s="11">
         <v>100</v>
       </c>
+      <c r="JI19" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11855,8 +11891,11 @@
       <c r="JH20" s="11">
         <v>250</v>
       </c>
+      <c r="JI20" s="11">
+        <v>250</v>
+      </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12659,8 +12698,11 @@
       <c r="JH21" s="11">
         <v>10</v>
       </c>
+      <c r="JI21" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13463,8 +13505,11 @@
       <c r="JH22" s="11">
         <v>9150</v>
       </c>
+      <c r="JI22" s="11">
+        <v>9210</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14267,8 +14312,11 @@
       <c r="JH23" s="11">
         <v>3220</v>
       </c>
+      <c r="JI23" s="11">
+        <v>3190</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15071,8 +15119,11 @@
       <c r="JH24" s="11">
         <v>1110</v>
       </c>
+      <c r="JI24" s="11">
+        <v>1100</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -15875,8 +15926,11 @@
       <c r="JH25" s="11">
         <v>100</v>
       </c>
+      <c r="JI25" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -16679,8 +16733,11 @@
       <c r="JH26" s="11">
         <v>900</v>
       </c>
+      <c r="JI26" s="11">
+        <v>890</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -17483,8 +17540,11 @@
       <c r="JH27" s="11">
         <v>110</v>
       </c>
+      <c r="JI27" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18287,8 +18347,11 @@
       <c r="JH28" s="11">
         <v>100</v>
       </c>
+      <c r="JI28" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19091,8 +19154,11 @@
       <c r="JH29" s="11">
         <v>140</v>
       </c>
+      <c r="JI29" s="11">
+        <v>140</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -19895,8 +19961,11 @@
       <c r="JH30" s="11">
         <v>270</v>
       </c>
+      <c r="JI30" s="11">
+        <v>280</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -20699,8 +20768,11 @@
       <c r="JH31" s="11">
         <v>920</v>
       </c>
+      <c r="JI31" s="11">
+        <v>910</v>
+      </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -21503,8 +21575,11 @@
       <c r="JH32" s="11">
         <v>520</v>
       </c>
+      <c r="JI32" s="11">
+        <v>500</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -22307,8 +22382,11 @@
       <c r="JH33" s="11">
         <v>170</v>
       </c>
+      <c r="JI33" s="11">
+        <v>170</v>
+      </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -23111,8 +23189,11 @@
       <c r="JH34" s="11">
         <v>5940</v>
       </c>
+      <c r="JI34" s="11">
+        <v>6020</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -23915,8 +23996,11 @@
       <c r="JH35" s="11">
         <v>2070</v>
       </c>
+      <c r="JI35" s="11">
+        <v>2040</v>
+      </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -24719,8 +24803,11 @@
       <c r="JH36" s="11">
         <v>3870</v>
       </c>
+      <c r="JI36" s="11">
+        <v>3990</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -25523,8 +25610,11 @@
       <c r="JH37" s="11">
         <v>2430</v>
       </c>
+      <c r="JI37" s="11">
+        <v>2350</v>
+      </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -26327,8 +26417,11 @@
       <c r="JH38" s="11">
         <v>1440</v>
       </c>
+      <c r="JI38" s="11">
+        <v>1630</v>
+      </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>98</v>
       </c>
@@ -26341,7 +26434,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>15</v>
       </c>
@@ -26354,7 +26447,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>99</v>
       </c>
@@ -26367,7 +26460,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>100</v>
       </c>
@@ -26380,7 +26473,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>101</v>
       </c>
@@ -26393,7 +26486,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>102</v>
       </c>
@@ -26406,7 +26499,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>103</v>
       </c>
@@ -26419,7 +26512,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>104</v>
       </c>

--- a/lowe/edd/data/LASSEHWS.xlsx
+++ b/lowe/edd/data/LASSEHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI47"/>
+  <dimension ref="A1:JJ47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,12 +1354,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1369,14 +1369,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1384,12 +1384,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2207,11 +2207,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3015,10 +3018,13 @@
         <v>9730</v>
       </c>
       <c r="JI9" s="11">
-        <v>9810</v>
+        <v>9800</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>10340</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3822,10 +3828,13 @@
         <v>9190</v>
       </c>
       <c r="JI10" s="11">
-        <v>9350</v>
+        <v>9360</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>9910</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4631,8 +4640,11 @@
       <c r="JI11" s="11">
         <v>450</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>430</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5438,8 +5450,11 @@
       <c r="JI12" s="12">
         <v>4.5999999999999999E-2</v>
       </c>
+      <c r="JJ12" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6245,8 +6260,11 @@
       <c r="JI13" s="11">
         <v>10110</v>
       </c>
+      <c r="JJ13" s="11">
+        <v>10860</v>
+      </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7052,8 +7070,11 @@
       <c r="JI14" s="11">
         <v>550</v>
       </c>
+      <c r="JJ14" s="11">
+        <v>1330</v>
+      </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7859,8 +7880,11 @@
       <c r="JI15" s="11">
         <v>9560</v>
       </c>
+      <c r="JJ15" s="11">
+        <v>9530</v>
+      </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8666,8 +8690,11 @@
       <c r="JI16" s="11">
         <v>3540</v>
       </c>
+      <c r="JJ16" s="11">
+        <v>3500</v>
+      </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9473,8 +9500,11 @@
       <c r="JI17" s="11">
         <v>350</v>
       </c>
+      <c r="JJ17" s="11">
+        <v>350</v>
+      </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10280,8 +10310,11 @@
       <c r="JI18" s="11">
         <v>350</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>340</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11087,8 +11120,11 @@
       <c r="JI19" s="11">
         <v>100</v>
       </c>
+      <c r="JJ19" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11894,8 +11930,11 @@
       <c r="JI20" s="11">
         <v>250</v>
       </c>
+      <c r="JJ20" s="11">
+        <v>240</v>
+      </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12701,8 +12740,11 @@
       <c r="JI21" s="11">
         <v>10</v>
       </c>
+      <c r="JJ21" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13508,8 +13550,11 @@
       <c r="JI22" s="11">
         <v>9210</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>9180</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14315,8 +14360,11 @@
       <c r="JI23" s="11">
         <v>3190</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>3150</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15122,8 +15170,11 @@
       <c r="JI24" s="11">
         <v>1100</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>1110</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -15929,8 +15980,11 @@
       <c r="JI25" s="11">
         <v>100</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -16736,8 +16790,11 @@
       <c r="JI26" s="11">
         <v>890</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>900</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -17543,8 +17600,11 @@
       <c r="JI27" s="11">
         <v>110</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>110</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18350,8 +18410,11 @@
       <c r="JI28" s="11">
         <v>100</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19157,8 +19220,11 @@
       <c r="JI29" s="11">
         <v>140</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>130</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -19964,8 +20030,11 @@
       <c r="JI30" s="11">
         <v>280</v>
       </c>
+      <c r="JJ30" s="11">
+        <v>260</v>
+      </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -20771,8 +20840,11 @@
       <c r="JI31" s="11">
         <v>910</v>
       </c>
+      <c r="JJ31" s="11">
+        <v>910</v>
+      </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -21578,8 +21650,11 @@
       <c r="JI32" s="11">
         <v>500</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>480</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -22385,8 +22460,11 @@
       <c r="JI33" s="11">
         <v>170</v>
       </c>
+      <c r="JJ33" s="11">
+        <v>160</v>
+      </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -23192,8 +23270,11 @@
       <c r="JI34" s="11">
         <v>6020</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>6030</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -23999,8 +24080,11 @@
       <c r="JI35" s="11">
         <v>2040</v>
       </c>
+      <c r="JJ35" s="11">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -24806,8 +24890,11 @@
       <c r="JI36" s="11">
         <v>3990</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>4030</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -25613,8 +25700,11 @@
       <c r="JI37" s="11">
         <v>2350</v>
       </c>
+      <c r="JJ37" s="11">
+        <v>2320</v>
+      </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -26420,8 +26510,11 @@
       <c r="JI38" s="11">
         <v>1630</v>
       </c>
+      <c r="JJ38" s="11">
+        <v>1710</v>
+      </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>98</v>
       </c>
@@ -26434,7 +26527,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>15</v>
       </c>
@@ -26447,7 +26540,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>99</v>
       </c>
@@ -26460,7 +26553,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>100</v>
       </c>
@@ -26473,7 +26566,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>101</v>
       </c>
@@ -26486,7 +26579,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>102</v>
       </c>
@@ -26499,7 +26592,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>103</v>
       </c>
@@ -26512,7 +26605,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>104</v>
       </c>

--- a/lowe/edd/data/LASSEHWS.xlsx
+++ b/lowe/edd/data/LASSEHWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1337,7 +1337,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ47"/>
+  <dimension ref="A1:JL47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,12 +1354,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1369,14 +1369,14 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1384,12 +1384,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
@@ -2210,11 +2210,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3023,8 +3029,14 @@
       <c r="JJ9" s="11">
         <v>10340</v>
       </c>
+      <c r="JK9" s="11">
+        <v>10040</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>9480</v>
+      </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3833,8 +3845,14 @@
       <c r="JJ10" s="11">
         <v>9910</v>
       </c>
+      <c r="JK10" s="11">
+        <v>9650</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>9090</v>
+      </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4643,8 +4661,14 @@
       <c r="JJ11" s="11">
         <v>430</v>
       </c>
+      <c r="JK11" s="11">
+        <v>380</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>390</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5453,8 +5477,14 @@
       <c r="JJ12" s="12">
         <v>4.1000000000000002E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>3.7999999999999999E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>4.1000000000000002E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6263,8 +6293,14 @@
       <c r="JJ13" s="11">
         <v>10860</v>
       </c>
+      <c r="JK13" s="11">
+        <v>10470</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>9760</v>
+      </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7073,8 +7109,14 @@
       <c r="JJ14" s="11">
         <v>1330</v>
       </c>
+      <c r="JK14" s="11">
+        <v>1020</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>510</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7883,8 +7925,14 @@
       <c r="JJ15" s="11">
         <v>9530</v>
       </c>
+      <c r="JK15" s="11">
+        <v>9450</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>9250</v>
+      </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8693,8 +8741,14 @@
       <c r="JJ16" s="11">
         <v>3500</v>
       </c>
+      <c r="JK16" s="11">
+        <v>3480</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>3440</v>
+      </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9503,8 +9557,14 @@
       <c r="JJ17" s="11">
         <v>350</v>
       </c>
+      <c r="JK17" s="11">
+        <v>320</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>290</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10313,8 +10373,14 @@
       <c r="JJ18" s="11">
         <v>340</v>
       </c>
+      <c r="JK18" s="11">
+        <v>310</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>280</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11123,8 +11189,14 @@
       <c r="JJ19" s="11">
         <v>100</v>
       </c>
+      <c r="JK19" s="11">
+        <v>90</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>80</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>15</v>
       </c>
@@ -11933,8 +12005,14 @@
       <c r="JJ20" s="11">
         <v>240</v>
       </c>
+      <c r="JK20" s="11">
+        <v>220</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>16</v>
       </c>
@@ -12743,8 +12821,14 @@
       <c r="JJ21" s="11">
         <v>10</v>
       </c>
+      <c r="JK21" s="11">
+        <v>10</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>10</v>
+      </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>17</v>
       </c>
@@ -13553,8 +13637,14 @@
       <c r="JJ22" s="11">
         <v>9180</v>
       </c>
+      <c r="JK22" s="11">
+        <v>9130</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>8960</v>
+      </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>18</v>
       </c>
@@ -14363,8 +14453,14 @@
       <c r="JJ23" s="11">
         <v>3150</v>
       </c>
+      <c r="JK23" s="11">
+        <v>3160</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>3150</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>19</v>
       </c>
@@ -15173,8 +15269,14 @@
       <c r="JJ24" s="11">
         <v>1110</v>
       </c>
+      <c r="JK24" s="11">
+        <v>1120</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>1110</v>
+      </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>20</v>
       </c>
@@ -15983,8 +16085,14 @@
       <c r="JJ25" s="11">
         <v>100</v>
       </c>
+      <c r="JK25" s="11">
+        <v>100</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>90</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>21</v>
       </c>
@@ -16793,8 +16901,14 @@
       <c r="JJ26" s="11">
         <v>900</v>
       </c>
+      <c r="JK26" s="11">
+        <v>910</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>900</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>22</v>
       </c>
@@ -17603,8 +17717,14 @@
       <c r="JJ27" s="11">
         <v>110</v>
       </c>
+      <c r="JK27" s="11">
+        <v>120</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>120</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>23</v>
       </c>
@@ -18413,8 +18533,14 @@
       <c r="JJ28" s="11">
         <v>100</v>
       </c>
+      <c r="JK28" s="11">
+        <v>100</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>100</v>
+      </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>24</v>
       </c>
@@ -19223,8 +19349,14 @@
       <c r="JJ29" s="11">
         <v>130</v>
       </c>
+      <c r="JK29" s="11">
+        <v>140</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>130</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>25</v>
       </c>
@@ -20033,8 +20165,14 @@
       <c r="JJ30" s="11">
         <v>260</v>
       </c>
+      <c r="JK30" s="11">
+        <v>250</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>250</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>26</v>
       </c>
@@ -20843,8 +20981,14 @@
       <c r="JJ31" s="11">
         <v>910</v>
       </c>
+      <c r="JK31" s="11">
+        <v>920</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>930</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>27</v>
       </c>
@@ -21653,8 +21797,14 @@
       <c r="JJ32" s="11">
         <v>480</v>
       </c>
+      <c r="JK32" s="11">
+        <v>480</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>460</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -22463,8 +22613,14 @@
       <c r="JJ33" s="11">
         <v>160</v>
       </c>
+      <c r="JK33" s="11">
+        <v>170</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>170</v>
+      </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>29</v>
       </c>
@@ -23273,8 +23429,14 @@
       <c r="JJ34" s="11">
         <v>6030</v>
       </c>
+      <c r="JK34" s="11">
+        <v>5970</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>5810</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>30</v>
       </c>
@@ -24083,8 +24245,14 @@
       <c r="JJ35" s="11">
         <v>2000</v>
       </c>
+      <c r="JK35" s="11">
+        <v>1960</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>1940</v>
+      </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>31</v>
       </c>
@@ -24893,8 +25061,14 @@
       <c r="JJ36" s="11">
         <v>4030</v>
       </c>
+      <c r="JK36" s="11">
+        <v>4010</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>3880</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>32</v>
       </c>
@@ -25703,8 +25877,14 @@
       <c r="JJ37" s="11">
         <v>2320</v>
       </c>
+      <c r="JK37" s="11">
+        <v>2290</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>2200</v>
+      </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>33</v>
       </c>
@@ -26513,8 +26693,14 @@
       <c r="JJ38" s="11">
         <v>1710</v>
       </c>
+      <c r="JK38" s="11">
+        <v>1720</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>1680</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
         <v>98</v>
       </c>
@@ -26527,7 +26713,7 @@
       <c r="H40" s="17"/>
       <c r="I40" s="16"/>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="13" t="s">
         <v>15</v>
       </c>
@@ -26540,7 +26726,7 @@
       <c r="H41" s="14"/>
       <c r="I41" s="18"/>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="13" t="s">
         <v>99</v>
       </c>
@@ -26553,7 +26739,7 @@
       <c r="H42" s="14"/>
       <c r="I42" s="18"/>
     </row>
-    <row r="43" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A43" s="13" t="s">
         <v>100</v>
       </c>
@@ -26566,7 +26752,7 @@
       <c r="H43" s="14"/>
       <c r="I43" s="18"/>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
         <v>101</v>
       </c>
@@ -26579,7 +26765,7 @@
       <c r="H44" s="14"/>
       <c r="I44" s="18"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>102</v>
       </c>
@@ -26592,7 +26778,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>103</v>
       </c>
@@ -26605,7 +26791,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="19" t="s">
         <v>104</v>
       </c>
